--- a/C3/Project_Files/Sales Rep Cities, States, and Parts.xlsx
+++ b/C3/Project_Files/Sales Rep Cities, States, and Parts.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="132" yWindow="600" windowWidth="22716" windowHeight="10788" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Raw_Data" sheetId="2" r:id="rId1"/>
+    <sheet name="Cleaned_Data" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="159">
   <si>
     <t>City</t>
   </si>
@@ -493,10 +497,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -504,24 +508,47 @@
     <font>
       <b/>
       <i/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -530,7 +557,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -540,53 +567,58 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -594,7 +626,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -784,1018 +816,2036 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.0"/>
-    <col customWidth="1" min="2" max="2" width="8.0"/>
-    <col customWidth="1" min="3" max="3" width="17.25"/>
-    <col customWidth="1" min="4" max="4" width="14.38"/>
+    <col min="1" max="1" width="22" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="5"/>
+    <col min="3" max="3" width="18" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="14.44140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row r="2" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B40" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="B41" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="3" t="s">
+    <row r="43" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="3" t="s">
+    <row r="49" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="6" t="s">
         <v>117</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="3" t="s">
+    <row r="51" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="3" t="s">
+    <row r="52" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="3" t="s">
+    <row r="53" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="3" t="s">
+    <row r="54" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="3" t="s">
+    <row r="55" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="3" t="s">
+    <row r="60" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="3" t="s">
+    <row r="64" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="6" t="s">
         <v>154</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="6" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Z69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>